--- a/4.9.Hypothesis_testing_Independent_samples-Part-2-exercise-2-solution.xlsx
+++ b/4.9.Hypothesis_testing_Independent_samples-Part-2-exercise-2-solution.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD8E63C-4F87-43E6-A190-D2B98E5BF1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2D5B07-7D0A-48F8-B1BA-045E12521BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,22 +335,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>99061</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>53341</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>99061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>426721</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>45721</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>950272</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BBF1F68-565A-4249-88EB-FD65244EC6F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AEAA231-ED67-4BD9-BA8E-6D953B4006C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -366,8 +366,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371601" y="4526281"/>
-          <a:ext cx="3208020" cy="861060"/>
+          <a:off x="1424940" y="4427221"/>
+          <a:ext cx="2580952" cy="1059180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
